--- a/meta/7-1-1.xlsx
+++ b/meta/7-1-1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\Working\ЦЕЛИ УСТОЙЧИВОГО РАЗВИТИЯ\ПОРУЧЕНИЕ\Метаданные для заполнения на 31 декабря 2019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\open-sdg-data-starter-develop\meta\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D326849-66C2-4810-971E-64EFBEFC815F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27120" windowHeight="8730" activeTab="1"/>
+    <workbookView xWindow="47880" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Инструкция" sheetId="1" r:id="rId1"/>
@@ -214,8 +215,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="15" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -284,13 +285,6 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
     <font>
       <sz val="11"/>
@@ -374,7 +368,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -419,8 +413,11 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
@@ -428,43 +425,31 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -741,50 +726,50 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="57.42578125" style="8" customWidth="1"/>
+    <col min="1" max="1" width="48.83984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="57.41796875" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B2" s="5"/>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="5"/>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B4" s="5"/>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
@@ -792,7 +777,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="2" t="s">
         <v>29</v>
       </c>
@@ -800,7 +785,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="2" t="s">
         <v>28</v>
       </c>
@@ -808,7 +793,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="2" t="s">
         <v>36</v>
       </c>
@@ -816,7 +801,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="2" t="s">
         <v>35</v>
       </c>
@@ -824,13 +809,13 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" ht="109.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="109.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="2" t="s">
         <v>34</v>
       </c>
@@ -838,7 +823,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="2" t="s">
         <v>9</v>
       </c>
@@ -846,7 +831,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" ht="120.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="2" t="s">
         <v>37</v>
       </c>
@@ -854,13 +839,13 @@
         <v>38</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
       <c r="B15" s="4"/>
     </row>
-    <row r="16" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
@@ -868,7 +853,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="211.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" ht="211.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="2" t="s">
         <v>41</v>
       </c>
@@ -876,13 +861,13 @@
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="9" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="4"/>
     </row>
-    <row r="19" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="2" t="s">
         <v>13</v>
       </c>
@@ -890,7 +875,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="2" t="s">
         <v>15</v>
       </c>
@@ -898,7 +883,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="2" t="s">
         <v>17</v>
       </c>
@@ -906,13 +891,13 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="9" t="s">
         <v>19</v>
       </c>
       <c r="B22" s="4"/>
     </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -920,7 +905,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" ht="43.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="2" t="s">
         <v>22</v>
       </c>
@@ -928,25 +913,25 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="9" t="s">
         <v>24</v>
       </c>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" ht="57.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="2"/>
       <c r="B26" s="6" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="9" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="4"/>
     </row>
-    <row r="28" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="2"/>
       <c r="B28" s="6" t="s">
         <v>27</v>
@@ -959,230 +944,222 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K65"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:K63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" zoomScale="81" zoomScaleNormal="81" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="48.85546875" style="3" customWidth="1"/>
-    <col min="2" max="2" width="87.140625" style="8" customWidth="1"/>
+    <col min="1" max="1" width="48.83984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="87.15625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="4"/>
     </row>
-    <row r="2" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="2" spans="1:2" ht="30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="20" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="20" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="22" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="9" t="s">
         <v>1</v>
       </c>
       <c r="B5" s="4"/>
     </row>
-    <row r="6" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B9" s="14" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+    <row r="10" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B10" s="12" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B11" s="4"/>
     </row>
-    <row r="12" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+    <row r="12" spans="1:2" ht="30.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="378" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+    <row r="13" spans="1:2" ht="321.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B13" s="25" t="s">
+      <c r="B13" s="21" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="63" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+    <row r="14" spans="1:2" ht="45.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="18" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="B15" s="16"/>
-    </row>
-    <row r="16" spans="1:2" s="8" customFormat="1" ht="110.25" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B15" s="26"/>
+    </row>
+    <row r="16" spans="1:2" s="8" customFormat="1" ht="91.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="18" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+    <row r="17" spans="1:2" ht="30.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="24" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="22"/>
-    </row>
-    <row r="19" spans="1:2" ht="63" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="B18" s="26"/>
+    </row>
+    <row r="19" spans="1:2" ht="61.2" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="23" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="362.25" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:2" ht="290.7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="16" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+    <row r="21" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="23"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21" s="19"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="17"/>
-    </row>
-    <row r="23" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="B22" s="26"/>
+    </row>
+    <row r="23" spans="1:2" ht="45.9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="16" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:2" ht="30.6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="25" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="63" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" ht="61.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="16" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="2"/>
-      <c r="B26" s="20"/>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="9" t="s">
+    <row r="26" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="4"/>
-    </row>
-    <row r="28" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="2"/>
-      <c r="B28" s="21"/>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B29" s="19"/>
-    </row>
-    <row r="65" spans="6:11" x14ac:dyDescent="0.25">
-      <c r="F65" s="15"/>
-      <c r="K65" s="8"/>
+      <c r="B26" s="18"/>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+      <c r="B27" s="17"/>
+    </row>
+    <row r="63" spans="6:11" x14ac:dyDescent="0.55000000000000004">
+      <c r="F63" s="15"/>
+      <c r="K63" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
-    <hyperlink ref="B10" r:id="rId2"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="B10" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>

--- a/meta/7-1-1.xlsx
+++ b/meta/7-1-1.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\ЦУР Open Data\Метаданные в Excel для Платформы\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\Метаданные  ЦУР в Excel для Платформы\Метаданные на русском\Глобальные\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D284968D-E117-4D62-BA2A-88C7E5445F72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28665" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Пример" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -109,25 +108,6 @@
   </si>
   <si>
     <t>7.1. К 2030 году обеспечить всеобщий доступ к недорогому, надежному и современному энергоснабжению</t>
-  </si>
-  <si>
-    <t>7.1.1. Доля населения, имеющего доступ к электроэнергии</t>
-  </si>
-  <si>
-    <t>Национальный статистический комитет КР
-(Отдел статистики домашних хозяйств)</t>
-  </si>
-  <si>
-    <t>Керималиева Н.К</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sdg_nsc@stat.kg </t>
-  </si>
-  <si>
-    <t>(0312) 32 46 91</t>
-  </si>
-  <si>
-    <t>www.stat.kg</t>
   </si>
   <si>
     <t xml:space="preserve">Домохозяйство, имеющее доступ к электроэнергии, определяется при выполнении следующего условия: наличие подключения к электрическим сетям и стабильность снабжения электроэнергией (никогда не отключали, отключилась несколько раз в год).  </t>
@@ -181,17 +161,44 @@
   <si>
     <t>Национальная платформа отчётности ЦУР КР: https://sustainabledevelopment-kyrgyzstan.github.io</t>
   </si>
+  <si>
+    <t xml:space="preserve">7.1.1. Доля населения, имеющего стабильный доступ к электроэнергии </t>
+  </si>
+  <si>
+    <t>Национальный статистический комитет КР
+(Управление статистики домашних хозяйств)</t>
+  </si>
+  <si>
+    <t>Калымбетова Ы.И.</t>
+  </si>
+  <si>
+    <t>(0312) 32 46 55</t>
+  </si>
+  <si>
+    <t>www.stat.gov.kg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yryskan.kalymbetova@gmail.com </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -267,32 +274,40 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
-    <cellStyle name="Обычный 2" xfId="1" xr:uid="{9EA242F8-2733-46CC-B512-B4C0474EB4E9}"/>
+    <cellStyle name="Обычный 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -569,11 +584,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0A3B0AB-BD5E-48A1-AEC0-6613735AA522}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -609,8 +624,8 @@
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>28</v>
+      <c r="B4" s="7" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -623,40 +638,40 @@
       <c r="A6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>29</v>
+      <c r="B6" s="8" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>30</v>
+      <c r="B7" s="7" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>31</v>
+      <c r="B8" s="7" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>32</v>
+      <c r="B9" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>33</v>
+      <c r="B10" s="7" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -670,7 +685,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -678,7 +693,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="409.6" customHeight="1" x14ac:dyDescent="0.25">
@@ -686,7 +701,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -700,7 +715,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="107.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -708,7 +723,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -722,7 +737,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -754,7 +769,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
@@ -768,7 +783,7 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
